--- a/PredictionSheets/VM 2014 Tippekonkuranse - Egil.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse - Egil.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppespilltipp" sheetId="1" r:id="rId1"/>
     <sheet name="Sluttspilltipp" sheetId="2" r:id="rId2"/>
     <sheet name="Kampoppsett" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1759,22 +1764,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="14.5" customWidth="1"/>
+    <col min="1" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>44</v>
       </c>
@@ -1784,13 +1789,13 @@
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" ht="28" customHeight="1" thickBot="1">
+    <row r="3" spans="1:15" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
@@ -1805,13 +1810,13 @@
       <c r="N3" s="64"/>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
       <c r="N4" s="64"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1829,7 +1834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1844,7 +1849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28" customHeight="1">
+    <row r="11" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="28" customHeight="1">
+    <row r="12" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -1938,7 +1943,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="28" customHeight="1">
+    <row r="13" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1977,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="28" customHeight="1">
+    <row r="14" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
@@ -2006,7 +2011,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28" customHeight="1">
+    <row r="15" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -2040,7 +2045,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="28" customHeight="1" thickBot="1">
+    <row r="16" spans="1:15" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.25" customHeight="1">
+    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
@@ -2082,7 +2087,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2096,7 +2101,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="28" customHeight="1">
+    <row r="19" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28" customHeight="1">
+    <row r="20" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
@@ -2164,7 +2169,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28" customHeight="1">
+    <row r="21" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28" customHeight="1">
+    <row r="22" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -2232,7 +2237,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28" customHeight="1">
+    <row r="23" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -2266,7 +2271,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.25" customHeight="1">
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
@@ -2308,7 +2313,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2322,7 +2327,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="28" customHeight="1">
+    <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
@@ -2356,7 +2361,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28" customHeight="1">
+    <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28" customHeight="1">
+    <row r="29" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
@@ -2424,7 +2429,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28" customHeight="1">
+    <row r="30" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28" customHeight="1">
+    <row r="31" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
@@ -2492,7 +2497,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
@@ -2526,7 +2531,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="20.25" customHeight="1">
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
@@ -2534,7 +2539,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2548,7 +2553,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="28" customHeight="1">
+    <row r="35" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>16</v>
       </c>
@@ -2582,7 +2587,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28" customHeight="1">
+    <row r="36" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
@@ -2616,7 +2621,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="28" customHeight="1">
+    <row r="37" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>16</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28" customHeight="1">
+    <row r="38" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>19</v>
       </c>
@@ -2684,7 +2689,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="28" customHeight="1">
+    <row r="39" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
@@ -2718,7 +2723,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28" customHeight="1" thickBot="1">
+    <row r="40" spans="1:11" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>17</v>
       </c>
@@ -2752,7 +2757,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
     </row>
   </sheetData>
@@ -2769,34 +2774,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
@@ -2810,7 +2815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -2824,7 +2829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
@@ -2838,7 +2843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>47</v>
       </c>
@@ -2860,7 +2865,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>7</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>6</v>
       </c>
@@ -2888,12 +2893,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="16" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>7</v>
       </c>
@@ -2907,12 +2912,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>31</v>
       </c>
@@ -2939,7 +2944,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2949,15 +2954,15 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="47"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="47"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2965,7 +2970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="50">
         <v>41802</v>
       </c>
@@ -2983,7 +2988,7 @@
       </c>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>41803</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>41807</v>
       </c>
@@ -3037,7 +3042,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>41809</v>
       </c>
@@ -3064,7 +3069,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>41813</v>
       </c>
@@ -3091,7 +3096,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>41813</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="62"/>
       <c r="C8" s="21"/>
@@ -3137,7 +3142,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <v>41803</v>
       </c>
@@ -3164,7 +3169,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>41804</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>41808</v>
       </c>
@@ -3207,7 +3212,7 @@
       <c r="F11" s="46"/>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>41808</v>
       </c>
@@ -3225,7 +3230,7 @@
       </c>
       <c r="G12" s="49"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>41813</v>
       </c>
@@ -3252,7 +3257,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>41813</v>
       </c>
@@ -3279,7 +3284,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="64" customFormat="1">
+    <row r="15" spans="1:11" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="62"/>
       <c r="C15" s="21"/>
@@ -3298,7 +3303,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="50">
         <v>41804</v>
       </c>
@@ -3327,7 +3332,7 @@
       </c>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>41805</v>
       </c>
@@ -3343,7 +3348,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="49"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>41809</v>
       </c>
@@ -3361,7 +3366,7 @@
       </c>
       <c r="G18" s="49"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>41810</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>41814</v>
       </c>
@@ -3415,7 +3420,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>41814</v>
       </c>
@@ -3431,7 +3436,7 @@
       <c r="F21" s="46"/>
       <c r="G21" s="49"/>
     </row>
-    <row r="22" spans="1:10" s="64" customFormat="1">
+    <row r="22" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="62"/>
       <c r="C22" s="21"/>
@@ -3441,7 +3446,7 @@
       </c>
       <c r="G22" s="66"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>41804</v>
       </c>
@@ -3466,7 +3471,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>41805</v>
       </c>
@@ -3482,7 +3487,7 @@
       <c r="F24" s="46"/>
       <c r="G24" s="49"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>41809</v>
       </c>
@@ -3500,7 +3505,7 @@
       </c>
       <c r="G25" s="49"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>41810</v>
       </c>
@@ -3525,7 +3530,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>41814</v>
       </c>
@@ -3540,7 +3545,7 @@
       </c>
       <c r="F27" s="45"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
         <v>41814</v>
       </c>
@@ -3555,7 +3560,7 @@
       </c>
       <c r="F28" s="45"/>
     </row>
-    <row r="29" spans="1:10" s="64" customFormat="1">
+    <row r="29" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="62"/>
       <c r="C29" s="21"/>
@@ -3563,7 +3568,7 @@
       <c r="F29" s="67"/>
       <c r="G29" s="68"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>41805</v>
       </c>
@@ -3581,7 +3586,7 @@
       <c r="G30" s="86"/>
       <c r="H30" s="87"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>41805</v>
       </c>
@@ -3596,7 +3601,7 @@
       </c>
       <c r="F31" s="45"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>41810</v>
       </c>
@@ -3611,7 +3616,7 @@
       </c>
       <c r="F32" s="45"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>41811</v>
       </c>
@@ -3626,7 +3631,7 @@
       </c>
       <c r="F33" s="45"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>41815</v>
       </c>
@@ -3641,7 +3646,7 @@
       </c>
       <c r="F34" s="45"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
         <v>41815</v>
       </c>
@@ -3656,14 +3661,14 @@
       </c>
       <c r="F35" s="45"/>
     </row>
-    <row r="36" spans="1:7" s="64" customFormat="1">
+    <row r="36" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
       <c r="B36" s="62"/>
       <c r="C36" s="21"/>
       <c r="D36" s="63"/>
       <c r="G36" s="68"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>41806</v>
       </c>
@@ -3677,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>41806</v>
       </c>
@@ -3691,7 +3696,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>41811</v>
       </c>
@@ -3705,7 +3710,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>41812</v>
       </c>
@@ -3719,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>41815</v>
       </c>
@@ -3733,7 +3738,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="57">
         <v>41815</v>
       </c>
@@ -3747,14 +3752,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="64" customFormat="1">
+    <row r="43" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="62"/>
       <c r="C43" s="21"/>
       <c r="D43" s="63"/>
       <c r="G43" s="68"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <v>41806</v>
       </c>
@@ -3768,7 +3773,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>41807</v>
       </c>
@@ -3782,7 +3787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>41811</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>41813</v>
       </c>
@@ -3810,7 +3815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>41816</v>
       </c>
@@ -3824,7 +3829,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="57">
         <v>41816</v>
       </c>
@@ -3838,14 +3843,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="64" customFormat="1">
+    <row r="50" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="62"/>
       <c r="C50" s="21"/>
       <c r="D50" s="63"/>
       <c r="G50" s="68"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="50">
         <v>41807</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>41808</v>
       </c>
@@ -3873,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>41812</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>41812</v>
       </c>
@@ -3901,7 +3906,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>41816</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="57">
         <v>41816</v>
       </c>
